--- a/collected_responses.xlsx
+++ b/collected_responses.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,7 +873,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46059.69617145206</v>
+        <v>46059.69617144676</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -932,6 +932,136 @@
       <c r="N9" t="inlineStr">
         <is>
           <t>هندسة مدني</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46059.70528552083</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hisham</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>راضي 😃</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.96%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ذكر</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>رابع</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">معلمومات الهندسة </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الحمد لله التعليم الإلكتروني ممتاز، الأساتذة ما قصروا والمحاضرات المسجلة ساعدتنا بالمراجعة
+</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الإلكتروني أريح بكثير، ما فيه توتر طريق وازدحام، وأدرس براحتي
+</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أكيد ساعدني كثير، ChatGPT صار جزء أساسي من دراستنا وأنصح باستمراره
+</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجامعة المستنصرية </t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">كلية الهندسة </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46059.70623665109</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>محمد</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>غير راضي 😞</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.68%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ذكر</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>رابع</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هندسة </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مشاكل تقنية كثيرة والكهرباء تطفي بنص الامتحان، ما نفهم شي من المحاضرة
+</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أفضل الحضوري لأن ماكو تفاعل بالإلكتروني، أحس أحجي ويا الحائط مو ويا دكتور
+</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ما استخدمه ولا أثق فيه، التعليم الإلكتروني فاشل ولازم يتوقف
+</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جامعة المستنصرية </t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">كلية الهندسة </t>
         </is>
       </c>
     </row>

--- a/collected_responses.xlsx
+++ b/collected_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsim2\Desktop\project tem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE46DF-17EF-4117-90DE-8F27BCCC1148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6CE722-8380-40C7-B8D4-476F68DF0A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Timestamp</t>
   </si>
@@ -62,12 +62,21 @@
   </si>
   <si>
     <t>الكلية</t>
+  </si>
+  <si>
+    <t>الشعور تجاه التعليم الإلكتروني</t>
+  </si>
+  <si>
+    <t>أسباب الإحباط</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,6 +485,15 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
